--- a/www/Libro1.xlsx
+++ b/www/Libro1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Desktop/Shiny Actividad Integradora/www/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Documents/GitHub/shinyPreguntasGrupo/www/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1CEC55E-0186-2F49-B2D9-1DE96BBF8144}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D12316-AC42-7B46-86E2-F7EAB69CCF77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15960" xr2:uid="{72DFB0E3-2184-C54C-97F1-AD949E99F511}"/>
+    <workbookView xWindow="14600" yWindow="0" windowWidth="14200" windowHeight="18000" xr2:uid="{72DFB0E3-2184-C54C-97F1-AD949E99F511}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
   <si>
     <t>categoria</t>
   </si>
@@ -44,58 +44,40 @@
     <t>Preguntas formales</t>
   </si>
   <si>
-    <t>¿En qué tema o temas te gustaría trabajar?</t>
-  </si>
-  <si>
-    <t>¿En qué proyectos de investigación has colaborado?</t>
-  </si>
-  <si>
-    <t>¿Qué proyectos profesionales quieres o esperas emprender en los próximos años?</t>
-  </si>
-  <si>
     <t>¿Cuál ha sido tu mayor reto profesional o académico?</t>
   </si>
   <si>
     <t>¿En dónde te gustaría trabajar en el mediano/largo plazo? ¿O en qué?</t>
   </si>
   <si>
-    <t>¿Cuáles son tus hobbies?</t>
-  </si>
-  <si>
-    <t>¿Cuál es tu película favorita?</t>
-  </si>
-  <si>
-    <t>¿Qué tipo de lecturas te gusta hacer?</t>
-  </si>
-  <si>
-    <t>¿Cuáles son tus series favoritas?</t>
-  </si>
-  <si>
-    <t>¿Qué tipo de música te gusta?</t>
-  </si>
-  <si>
     <t>¿Qué has aprendido durante esta cuarentena?</t>
   </si>
   <si>
     <t>¿Cómo has sacado provecho de tu tiempo durante la cuarentena?</t>
   </si>
   <si>
-    <t>Preguntas para mejora</t>
-  </si>
-  <si>
-    <t>Hasta el momento, ¿qué te ha gustado de las prácticas profesionales y que no te ha gustado?</t>
-  </si>
-  <si>
-    <t>¿Qué tipo de actividades sugieres que realicemos para mejorar el trabajo realizado durante las prácticas profesionales?</t>
-  </si>
-  <si>
-    <t>¿Qué canales de comunicación crees que funcionan mejor dentro del equipo</t>
-  </si>
-  <si>
     <t>Preguntas para “romper el hielo”</t>
   </si>
   <si>
-    <t>¿De qué tema fue (o va a ser) tu tesis de licenciatura o de maestría?</t>
+    <t>¿En qué tema o temas te gustaría trabajar en un futuro?</t>
+  </si>
+  <si>
+    <t>¿Qué proyectos profesionales quieres emprender en los próximos años?</t>
+  </si>
+  <si>
+    <t>¿Qué carrera/maestría/especialidad/doctorado te gustaría estudiar? ¿O qué otra carrera te habría gustado estudiar?</t>
+  </si>
+  <si>
+    <t>¿Cuáles son tus hobbies? ¿Qué haces cuando no estás trabajando o estudiando?</t>
+  </si>
+  <si>
+    <t>¿Qué te gusta leer?</t>
+  </si>
+  <si>
+    <t>¿Qué tipo de películas o series te gusta ver?</t>
+  </si>
+  <si>
+    <t>¿Qué lugar del mundo te gustaría conocer?</t>
   </si>
 </sst>
 </file>
@@ -447,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53111480-3ED1-A34F-AD52-FA5C6237FCA4}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -472,7 +454,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -480,7 +462,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -488,7 +470,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -496,7 +478,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -504,95 +486,55 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/www/Libro1.xlsx
+++ b/www/Libro1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Documents/GitHub/shinyPreguntasGrupo/www/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juvenalcampos/Documents/GitHub/shinyPreguntasGrupo/www/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D12316-AC42-7B46-86E2-F7EAB69CCF77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C75AB345-8E4A-B349-BFDC-CD1325E43AE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14600" yWindow="0" windowWidth="14200" windowHeight="18000" xr2:uid="{72DFB0E3-2184-C54C-97F1-AD949E99F511}"/>
+    <workbookView xWindow="5940" yWindow="500" windowWidth="22860" windowHeight="15800" xr2:uid="{72DFB0E3-2184-C54C-97F1-AD949E99F511}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
   <si>
     <t>categoria</t>
   </si>
@@ -44,50 +44,60 @@
     <t>Preguntas formales</t>
   </si>
   <si>
-    <t>¿Cuál ha sido tu mayor reto profesional o académico?</t>
-  </si>
-  <si>
-    <t>¿En dónde te gustaría trabajar en el mediano/largo plazo? ¿O en qué?</t>
-  </si>
-  <si>
-    <t>¿Qué has aprendido durante esta cuarentena?</t>
-  </si>
-  <si>
-    <t>¿Cómo has sacado provecho de tu tiempo durante la cuarentena?</t>
-  </si>
-  <si>
     <t>Preguntas para “romper el hielo”</t>
   </si>
   <si>
-    <t>¿En qué tema o temas te gustaría trabajar en un futuro?</t>
-  </si>
-  <si>
     <t>¿Qué proyectos profesionales quieres emprender en los próximos años?</t>
   </si>
   <si>
-    <t>¿Qué carrera/maestría/especialidad/doctorado te gustaría estudiar? ¿O qué otra carrera te habría gustado estudiar?</t>
-  </si>
-  <si>
-    <t>¿Cuáles son tus hobbies? ¿Qué haces cuando no estás trabajando o estudiando?</t>
-  </si>
-  <si>
-    <t>¿Qué te gusta leer?</t>
-  </si>
-  <si>
-    <t>¿Qué tipo de películas o series te gusta ver?</t>
-  </si>
-  <si>
-    <t>¿Qué lugar del mundo te gustaría conocer?</t>
+    <t xml:space="preserve">De los proyectos escolares o profesionales de investigación en los que has participado, ¿cuáles han sido los que más te han gustado? ¿Por qué? </t>
+  </si>
+  <si>
+    <t>¿Quién es la persona a la que más admiras y por qué? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Cuáles son tus hobbies? ¿Qué haces cuando no estás trabajando o estudiando? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Qué te gusta leer? ¿Algún libro que nos recomiendes? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Qué tipo de películas o series te gusta ver? ¿Alguna recomendación? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Qué lugar de México o del mundo te gustaría conocer?  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Qué es lo que te gusta más y lo que te gusta menos de trabajar a distancia? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿En qué tema(s) te gustaría trabajar? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Cuál ha sido tu mayor reto profesional o académico?	 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿En dónde te gustaría trabajar en el mediano/largo plazo? ¿O en qué? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Qué carrera/maestría/especialidad/doctorado te gustaría estudiar? ¿O qué otra carrera te habría gustado estudiar? </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -113,8 +123,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -429,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53111480-3ED1-A34F-AD52-FA5C6237FCA4}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" zoomScale="143" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -454,7 +465,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -462,7 +473,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -470,7 +481,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -478,7 +489,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -486,55 +497,63 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
+        <v>3</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
         <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
